--- a/scripts/data/gongFa_config_Table.xlsx
+++ b/scripts/data/gongFa_config_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>功法id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,43 +34,6 @@
   </si>
   <si>
     <t>功法类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0;10011;10012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10040;10041;10042</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030;10031;10032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10020;10021;10022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills[][tInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -406,83 +369,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6">
         <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/gongFa_config_Table.xlsx
+++ b/scripts/data/gongFa_config_Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="@功法配置表#gongFa_config_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>功法id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,13 +34,37 @@
   </si>
   <si>
     <t>功法类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵弓术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜之术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩盾术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金盾术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,64 +392,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
